--- a/medicine/Mort/Mémorial_Nécropole_Ecumênica/Mémorial_Nécropole_Ecumênica.xlsx
+++ b/medicine/Mort/Mémorial_Nécropole_Ecumênica/Mémorial_Nécropole_Ecumênica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_N%C3%A9cropole_Ecum%C3%AAnica</t>
+          <t>Mémorial_Nécropole_Ecumênica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Mémorial Necrópole Ecumênica est un cimetière vertical brésilien. Situé à Santos, dans l'État de São Paulo. Il est considéré comme le cimetière le plus haut au monde[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Mémorial Necrópole Ecumênica est un cimetière vertical brésilien. Situé à Santos, dans l'État de São Paulo. Il est considéré comme le cimetière le plus haut au monde.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_N%C3%A9cropole_Ecum%C3%AAnica</t>
+          <t>Mémorial_Nécropole_Ecumênica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création
-Sa construction a commencé en 1983[2].  Le premier enterrement a eu lieu le 28 juillet 1984[3].
-Caractéristiques et particularités
-Le cimetière est composé de quartorze étages et occupe une superficie de 1,8 hectare et contient environ 16 000 tombes[4],[5]. Il bat le record guinness du  cimetière vertical le plus haut du monde depuis 1991[6].
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa construction a commencé en 1983.  Le premier enterrement a eu lieu le 28 juillet 1984.
 </t>
         </is>
       </c>
@@ -527,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_N%C3%A9cropole_Ecum%C3%AAnica</t>
+          <t>Mémorial_Nécropole_Ecumênica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques et particularités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est composé de quartorze étages et occupe une superficie de 1,8 hectare et contient environ 16 000 tombes,. Il bat le record guinness du  cimetière vertical le plus haut du monde depuis 1991.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mémorial_Nécropole_Ecumênica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9morial_N%C3%A9cropole_Ecum%C3%AAnica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Enterrement de Pelé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La légende brésilienne du football Pelé devrait y être enterrée après ses funérailles[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La légende brésilienne du football Pelé devrait y être enterrée après ses funérailles.
 </t>
         </is>
       </c>
